--- a/biology/Botanique/Wellstedia/Wellstedia.xlsx
+++ b/biology/Botanique/Wellstedia/Wellstedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wellstedia est un genre de plantes à fleurs de la famille des Wellstediaceae.
 </t>
@@ -511,22 +523,19 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il est traditionnellement classé dans la famille des Boraginaceae, mais placé dans sa propre famille des Wellstediaceae au sein des Boraginales[1].
-Il y a 11 familles de Wellstediaceae[2].
-Selon GBIF       (16 janvier 2024)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il est traditionnellement classé dans la famille des Boraginaceae, mais placé dans sa propre famille des Wellstediaceae au sein des Boraginales.
+Il y a 11 familles de Wellstediaceae.
+Selon GBIF       (16 janvier 2024) :
 Wellstedia dinteri Pilg
 Wellstedia filtuensis D.R.Hunt &amp; Lebrun
 Wellstedia laciniata Thulin &amp; A.Johanss.
 Wellstedia robusta Thulin
 Wellstedia socotrana Balf.fil.
-Wellstedia somalensis Thulin &amp; A.Johanss.
-Synonymie
-Étymologie
-Noms vulgaires et vernaculaires
-En français
-Dans les autres langues</t>
+Wellstedia somalensis Thulin &amp; A.Johanss.</t>
         </is>
       </c>
     </row>
@@ -554,9 +563,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Wellstedia Balf.f.[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Wellstedia Balf.f..
 </t>
         </is>
       </c>
@@ -582,16 +593,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Appareil végétatif
-Appareil reproducteur
-Variabilité</t>
-        </is>
-      </c>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -614,70 +621,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dissémination des graines
-Développement
-Fécondation et pollinisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Wellstedia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Wellstedia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Wellstedia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Wellstedia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition naturelle de ce genre est le Nord Est de l'Afrique tropicale et l'Afrique du Sud[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition naturelle de ce genre est le Nord Est de l'Afrique tropicale et l'Afrique du Sud
 </t>
         </is>
       </c>
